--- a/paper/results.xlsx
+++ b/paper/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e7c9e29aefc5534/Share/Penn/Research/OPF/paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damow\OneDrive\Share\Penn\Research\OPF\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C927AFE-561C-49C9-B4B2-F4406B6CC57E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="8_{0C927AFE-561C-49C9-B4B2-F4406B6CC57E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{20771EA1-F8C4-4AB1-A668-32516C1D449B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{324759D2-FAC6-4484-BFB6-65F46FBE8863}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
     <r>
       <t>{</t>
@@ -266,254 +266,6 @@
     <t>Violations</t>
   </si>
   <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'max_epochs'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'module__dimNodeSignals'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'module__nFilterTaps'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: []</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'module__dimLayersMLP'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>512</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>512</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>case_info[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'num_gen'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'module__nSelectedNodes'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: []</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'module__poolingSize'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>: []}</t>
-    </r>
-  </si>
-  <si>
     <t>MLP</t>
   </si>
   <si>
@@ -1191,12 +943,2601 @@
       <t>]}</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'max_epochs'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__dimLayersMLP'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__dimNodeSignals'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__nFilterTaps'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__nSelectedNodes'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__poolingSize'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'max_epochs'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__dimLayersMLP'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__dimNodeSignals'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__nFilterTaps'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__nSelectedNodes'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__poolingSize'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'max_epochs'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__dimNodeSignals'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__nFilterTaps'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: []</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__dimLayersMLP'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>case_info[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'num_gen'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__nSelectedNodes'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: []</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__poolingSize'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: []}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'max_epochs'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__dimLayersMLP'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>512</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>case_info[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'num_gen'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__dimNodeSignals'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__nFilterTaps'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__nSelectedNodes'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__poolingSize'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]}</t>
+    </r>
+  </si>
+  <si>
+    <t>Local MLP</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'max_epochs'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__dimNodeSignals'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__nFilterTaps'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: []</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__dimLayersMLP'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>case_info[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'num_gen'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__nSelectedNodes'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: []</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__poolingSize'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: []}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'max_epochs'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__dimNodeSignals'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__nFilterTaps'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__nSelectedNodes'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__poolingSize'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'max_epochs'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__dimNodeSignals'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__nFilterTaps'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'max_epochs'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__dimNodeSignals'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__nFilterTaps'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'max_epochs'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__dimLayersMLP'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [case_info[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'num_gen'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__dimNodeSignals'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__nFilterTaps'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__nSelectedNodes'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>N]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'module__poolingSize'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]}</t>
+    </r>
+  </si>
+  <si>
+    <t>{'max_epochs': 100, 'module__dimNodeSignals': [4], 'module__nFilterTaps': [], 'module__dimLayersMLP': [128, 64, case_info['num_gen']], 'module__nSelectedNodes': [], 'module__poolingSize': []}</t>
+  </si>
+  <si>
+    <t>Experiment 1</t>
+  </si>
+  <si>
+    <t>Experiment 2</t>
+  </si>
+  <si>
+    <t>iceland</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,6 +3569,20 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1249,9 +3604,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1568,15 +3928,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EA0F78-B479-4D41-9796-8B4F314F29FE}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.140625" customWidth="1"/>
+    <col min="2" max="2" width="199.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1624,7 +3984,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1644,18 +4004,18 @@
         <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.119756169617176</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>1.0024021532576901</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>0.28209037981702201</v>
       </c>
     </row>
@@ -1664,19 +4024,19 @@
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5">
-        <v>6.7187845706939697E-2</v>
+        <v>3.8444053381681401E-2</v>
       </c>
       <c r="E5">
-        <v>1.00226561065812</v>
+        <v>1.00135713888086</v>
       </c>
       <c r="F5">
-        <v>0.32048794011644</v>
+        <v>0.300388134183532</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1684,27 +4044,353 @@
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>3.4316714853048297E-2</v>
+        <v>6.6457189619541099E-2</v>
       </c>
       <c r="E6">
-        <v>1.0008956278355901</v>
+        <v>1.0009762234572199</v>
       </c>
       <c r="F6">
-        <v>0.43983920155253597</v>
+        <v>0.44205711117271901</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.2641423642635297E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.0013300343134499</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.345300803992237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>3.1060101464390699E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.00039761901761</v>
+      </c>
+      <c r="F8">
+        <v>0.465899639589686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4.5086566358804703E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.0002409122559199</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.73343498752425795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>2.5944376364350302E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.00090036233381</v>
+      </c>
+      <c r="F10">
+        <v>0.43540338231217002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.15984956920146901</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.0015699273984799</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.45591904629886298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>118</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2.853349968791E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>118</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>0.30143633484840299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>118</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>7.9295467585325206E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>118</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>9.0149771422147699E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>9.0232498943805695E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>6.1216536909341798E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0.138903558254241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>0.16130736470222401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>118</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>9.5823882147669792E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>118</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>3.0622284393757499E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>118</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>3.03832292556762E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>118</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>0.35932469367980902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>118</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>2.8736667633056601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>118</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>1.04503858089447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>3.4632771015167201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>4.3181176185607901</v>
       </c>
     </row>
   </sheetData>
